--- a/biology/Zoologie/Chilomeniscus_stramineus/Chilomeniscus_stramineus.xlsx
+++ b/biology/Zoologie/Chilomeniscus_stramineus/Chilomeniscus_stramineus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chilomeniscus stramineus est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chilomeniscus stramineus est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce se rencontre :
 aux États-Unis, dans le sud-ouest de l'Arizona ;
-au Mexique, en Basse-Californie, en Basse-Californie du Sud et dans l'ouest du Sonora[1].</t>
+au Mexique, en Basse-Californie, en Basse-Californie du Sud et dans l'ouest du Sonora.</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description Cope indique que le plus grand spécimen en sa possession mesurait 230 mm. Sa coloration était brunâtre dessus et jaune paille clair dessous[2]. Le dessus de sa tête était grisâtre et tachetée de petites marques sombres. Il s'agit d'un serpent ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Cope indique que le plus grand spécimen en sa possession mesurait 230 mm. Sa coloration était brunâtre dessus et jaune paille clair dessous. Le dessus de sa tête était grisâtre et tachetée de petites marques sombres. Il s'agit d'un serpent ovipare.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 février 2014) :
 Chilomeniscus stramineus esterensis Hoard, 1939
 Chilomeniscus stramineus stramineus Cope, 1860</t>
         </is>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cope, 1861 "1860" : Notes and descriptions of new and little-known species of American reptiles. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 339-345 (texte intégral).
 Hoard, 1939 : A new subspecies of snake of the genus Chilomeniscus. Journal of entomology and zoology : Pomona College, vol. 31, no 4, p. 45-46
